--- a/result/tpot_genetic_algorithm_results.xlsx
+++ b/result/tpot_genetic_algorithm_results.xlsx
@@ -11,6 +11,15 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Best Model" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CM1 Classification Report" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JM1 Classification Report" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC1 Classification Report" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KC3 Classification Report" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC1 Classification Report" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MC2 Classification Report" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MW1 Classification Report" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC1 Classification Report" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC2 Classification Report" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC3 Classification Report" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PC4 Classification Report" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,6 +627,1378 @@
       </c>
       <c r="C12" t="n">
         <v>0.94399330591679</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8044692737430168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8622754491017964</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8323699421965318</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8695537102590398</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.970703125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.990990990990991</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9892183288409704</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9918918918918919</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.99055330634278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9994289129424265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.967032967032967</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9702970297029703</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.963265306122449</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9949930626772033</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8970588235294118</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9581151832460733</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9265822784810127</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9897247809166504</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.995575221238938</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9761388286334056</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9966509702037835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9776119402985075</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9562043795620438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.966789667896679</v>
+      </c>
+      <c r="E2" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9516129032258065</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.963265306122449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.964612421762157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9657054955661459</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.965027487009564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9654185934543338</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9651162790697675</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.965136769545199</v>
+      </c>
+      <c r="E6" t="n">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9540229885057471</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8877005347593583</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9196675900277008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8970588235294118</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9581151832460733</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9265822784810127</v>
+      </c>
+      <c r="E3" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9255409060175794</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9229078590027158</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9231249342543568</v>
+      </c>
+      <c r="E5" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9252395083192919</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9232804232804233</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9231615199075489</v>
+      </c>
+      <c r="E6" t="n">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9952153110047847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9541284403669725</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9742388758782201</v>
+      </c>
+      <c r="E2" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.995575221238938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9761388286334056</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9763310597577115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9748518308029552</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9751888522558129</v>
+      </c>
+      <c r="E5" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.975990802978485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9752252252252253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.975205968947301</v>
+      </c>
+      <c r="E6" t="n">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +2012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +2091,387 @@
             train_test_split(features, tpot_data['target'], random_state=42)
 # Average CV score on the training set was: 0.8731107611070466
 exported_pipeline = RandomForestClassifier(bootstrap=False, criterion="entropy", max_features=0.15000000000000002, min_samples_leaf=2, min_samples_split=4, n_estimators=100)
+# Fix random state in exported estimator
+if hasattr(exported_pipeline, 'random_state'):
+    setattr(exported_pipeline, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>KC1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.model_selection import train_test_split
+from sklearn.neighbors import KNeighborsClassifier
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.8434507808565354
+exported_pipeline = KNeighborsClassifier(n_neighbors=2, p=1, weights="distance")
+# Fix random state in exported estimator
+if hasattr(exported_pipeline, 'random_state'):
+    setattr(exported_pipeline, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KC3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.decomposition import FastICA
+from sklearn.ensemble import GradientBoostingClassifier
+from sklearn.model_selection import train_test_split
+from sklearn.pipeline import make_pipeline
+from tpot.export_utils import set_param_recursive
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9412645069128484
+exported_pipeline = make_pipeline(
+    FastICA(tol=0.4),
+    GradientBoostingClassifier(learning_rate=0.5, max_depth=8, max_features=0.15000000000000002, min_samples_leaf=2, min_samples_split=20, n_estimators=100, subsample=0.9000000000000001)
+)
+# Fix random state for all the steps in exported pipeline
+set_param_recursive(exported_pipeline.steps, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MC1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.ensemble import GradientBoostingClassifier
+from sklearn.model_selection import train_test_split
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9933549017271883
+exported_pipeline = GradientBoostingClassifier(learning_rate=0.5, max_depth=10, max_features=0.9500000000000001, min_samples_leaf=6, min_samples_split=8, n_estimators=100, subsample=0.7500000000000001)
+# Fix random state in exported estimator
+if hasattr(exported_pipeline, 'random_state'):
+    setattr(exported_pipeline, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MC2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.model_selection import train_test_split
+from sklearn.neural_network import MLPClassifier
+from sklearn.pipeline import make_pipeline
+from sklearn.preprocessing import MinMaxScaler, StandardScaler
+from tpot.export_utils import set_param_recursive
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.822332056194125
+exported_pipeline = make_pipeline(
+    MinMaxScaler(),
+    StandardScaler(),
+    MLPClassifier(alpha=0.01, learning_rate_init=0.01)
+)
+# Fix random state for all the steps in exported pipeline
+set_param_recursive(exported_pipeline.steps, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MW1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.decomposition import FastICA
+from sklearn.model_selection import train_test_split
+from sklearn.neural_network import MLPClassifier
+from sklearn.pipeline import make_pipeline
+from tpot.export_utils import set_param_recursive
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9414631358106484
+exported_pipeline = make_pipeline(
+    FastICA(tol=0.0),
+    MLPClassifier(alpha=0.1, learning_rate_init=0.01)
+)
+# Fix random state for all the steps in exported pipeline
+set_param_recursive(exported_pipeline.steps, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.ensemble import GradientBoostingClassifier
+from sklearn.model_selection import train_test_split
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9755932718257643
+exported_pipeline = GradientBoostingClassifier(learning_rate=0.5, max_depth=9, max_features=0.8, min_samples_leaf=15, min_samples_split=13, n_estimators=100, subsample=0.9500000000000001)
+# Fix random state in exported estimator
+if hasattr(exported_pipeline, 'random_state'):
+    setattr(exported_pipeline, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PC2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.decomposition import PCA
+from sklearn.ensemble import ExtraTreesClassifier
+from sklearn.model_selection import train_test_split
+from sklearn.pipeline import make_pipeline
+from tpot.export_utils import set_param_recursive
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9982905982905983
+exported_pipeline = make_pipeline(
+    PCA(iterated_power=8, svd_solver="randomized"),
+    ExtraTreesClassifier(bootstrap=True, criterion="entropy", max_features=0.7500000000000001, min_samples_leaf=3, min_samples_split=9, n_estimators=100)
+)
+# Fix random state for all the steps in exported pipeline
+set_param_recursive(exported_pipeline.steps, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.ensemble import GradientBoostingClassifier
+from sklearn.model_selection import train_test_split
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9371985566595418
+exported_pipeline = GradientBoostingClassifier(learning_rate=0.5, max_depth=8, max_features=0.6000000000000001, min_samples_leaf=6, min_samples_split=4, n_estimators=100, subsample=0.7500000000000001)
+# Fix random state in exported estimator
+if hasattr(exported_pipeline, 'random_state'):
+    setattr(exported_pipeline, 'random_state', 42)
+exported_pipeline.fit(training_features, training_target)
+results = exported_pipeline.predict(testing_features)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PC4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">import numpy as np
+import pandas as pd
+from sklearn.ensemble import GradientBoostingClassifier
+from sklearn.model_selection import train_test_split
+# NOTE: Make sure that the outcome column is labeled 'target' in the data file
+tpot_data = pd.read_csv('PATH/TO/DATA/FILE', sep='COLUMN_SEPARATOR', dtype=np.float64)
+features = tpot_data.drop('target', axis=1)
+training_features, testing_features, training_target, testing_target = \
+            train_test_split(features, tpot_data['target'], random_state=42)
+# Average CV score on the training set was: 0.9587906659540006
+exported_pipeline = GradientBoostingClassifier(learning_rate=0.5, max_depth=10, max_features=0.1, min_samples_leaf=7, min_samples_split=6, n_estimators=100, subsample=0.9500000000000001)
 # Fix random state in exported estimator
 if hasattr(exported_pipeline, 'random_state'):
     setattr(exported_pipeline, 'random_state', 42)
@@ -994,4 +2756,684 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.863905325443787</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8066298342541437</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8342857142857143</v>
+      </c>
+      <c r="E2" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8044692737430168</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8622754491017964</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8323699421965318</v>
+      </c>
+      <c r="E3" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8341872995934019</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8344526416779701</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8333278282411231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8353828523574979</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8333663638865951</v>
+      </c>
+      <c r="E6" t="n">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9253731343283582</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9655172413793104</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9180327868852459</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.921875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9256157635467981</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9217029606068021</v>
+      </c>
+      <c r="E5" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9256157635467981</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9217029606068021</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9926108374384236</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9901719901719902</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.991389913899139</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9892183288409704</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9918918918918919</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99055330634278</v>
+      </c>
+      <c r="E3" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.990990990990991</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.990914583139697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.991031941031941</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9909716101209596</v>
+      </c>
+      <c r="E5" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9909953571539221</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.990990990990991</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9909915293484918</v>
+      </c>
+      <c r="E6" t="n">
+        <v>777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9388888888888889</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9629629629629629</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9423076923076923</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9702970297029703</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.967032967032967</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9711538461538461</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9666299963329665</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9689349112426036</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.967032967032967</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9669120758229669</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>